--- a/DA/cap06-Workflows_Intradepartamentales/IPT_ACRM_Procesos_ADMPED_150331.xlsx
+++ b/DA/cap06-Workflows_Intradepartamentales/IPT_ACRM_Procesos_ADMPED_150331.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="8085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="8085" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="ACTIVIDAD (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="ACTIVIDAD (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Tareas" sheetId="3" r:id="rId3"/>
+    <sheet name="Tares (2)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
   <si>
     <t>ÁREAS</t>
   </si>
@@ -137,13 +138,25 @@
   </si>
   <si>
     <t>GRC.010.65</t>
+  </si>
+  <si>
+    <t>PROCESO Gestión de Reparación (GRC)</t>
+  </si>
+  <si>
+    <t>Áreas</t>
+  </si>
+  <si>
+    <t>Áreas IPT - Energy</t>
+  </si>
+  <si>
+    <t>Áreas Externas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +174,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,11 +285,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +360,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +845,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:Q14"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="20"/>
+      <c r="E8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="4:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="4:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="D12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="4:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="E4:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,12 +1251,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="B2:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
